--- a/Projects/CCNAYARMX/Data/CCNayarTemplatev0.5.2.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayarTemplatev0.5.2.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="271">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -1062,7 +1062,7 @@
     <t xml:space="preserve">KPI Description </t>
   </si>
   <si>
-    <t xml:space="preserve">product_local_name</t>
+    <t xml:space="preserve">product_short_name</t>
   </si>
   <si>
     <t xml:space="preserve">product_weight</t>
@@ -1421,7 +1421,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="90">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1751,14 +1751,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1873,10 +1865,10 @@
   </sheetPr>
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="H33" activeCellId="0" sqref="H33"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="C60" activeCellId="0" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3909,18 +3901,18 @@
       <c r="L2" s="60" t="s">
         <v>264</v>
       </c>
-      <c r="M2" s="91"/>
+      <c r="M2" s="89"/>
       <c r="N2" s="60" t="s">
         <v>265</v>
       </c>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91" t="s">
+      <c r="O2" s="89"/>
+      <c r="P2" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="Q2" s="91" t="s">
+      <c r="Q2" s="89" t="s">
         <v>111</v>
       </c>
-      <c r="R2" s="91"/>
+      <c r="R2" s="89"/>
     </row>
     <row r="3" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="59" t="n">
@@ -3953,18 +3945,18 @@
       <c r="L3" s="60" t="s">
         <v>264</v>
       </c>
-      <c r="M3" s="91"/>
+      <c r="M3" s="89"/>
       <c r="N3" s="60" t="s">
         <v>265</v>
       </c>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91" t="s">
+      <c r="O3" s="89"/>
+      <c r="P3" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="Q3" s="91" t="s">
+      <c r="Q3" s="89" t="s">
         <v>111</v>
       </c>
-      <c r="R3" s="91"/>
+      <c r="R3" s="89"/>
     </row>
     <row r="4" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="59" t="n">
@@ -3997,18 +3989,18 @@
       <c r="L4" s="60" t="s">
         <v>264</v>
       </c>
-      <c r="M4" s="91"/>
+      <c r="M4" s="89"/>
       <c r="N4" s="60" t="s">
         <v>265</v>
       </c>
-      <c r="O4" s="91"/>
-      <c r="P4" s="91" t="s">
+      <c r="O4" s="89"/>
+      <c r="P4" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="Q4" s="91" t="s">
+      <c r="Q4" s="89" t="s">
         <v>111</v>
       </c>
-      <c r="R4" s="91"/>
+      <c r="R4" s="89"/>
     </row>
     <row r="5" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="59" t="n">
@@ -4041,18 +4033,18 @@
       <c r="L5" s="60" t="s">
         <v>264</v>
       </c>
-      <c r="M5" s="91"/>
+      <c r="M5" s="89"/>
       <c r="N5" s="60" t="s">
         <v>265</v>
       </c>
-      <c r="O5" s="91"/>
-      <c r="P5" s="91" t="s">
+      <c r="O5" s="89"/>
+      <c r="P5" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="Q5" s="91" t="s">
+      <c r="Q5" s="89" t="s">
         <v>111</v>
       </c>
-      <c r="R5" s="91"/>
+      <c r="R5" s="89"/>
     </row>
     <row r="6" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="59" t="n">
@@ -4085,18 +4077,18 @@
       <c r="L6" s="60" t="s">
         <v>264</v>
       </c>
-      <c r="M6" s="91"/>
+      <c r="M6" s="89"/>
       <c r="N6" s="60" t="s">
         <v>265</v>
       </c>
-      <c r="O6" s="91"/>
-      <c r="P6" s="91" t="s">
+      <c r="O6" s="89"/>
+      <c r="P6" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="Q6" s="91" t="s">
+      <c r="Q6" s="89" t="s">
         <v>111</v>
       </c>
-      <c r="R6" s="91"/>
+      <c r="R6" s="89"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6067,10 +6059,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:V65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6164,146 +6156,109 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="83" t="n">
-        <v>38</v>
-      </c>
-      <c r="B2" s="84" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="84" t="s">
+    <row r="2" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="59" t="n">
+        <v>56</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="60"/>
+      <c r="E2" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
+      <c r="F2" s="62" t="s">
+        <v>237</v>
+      </c>
+      <c r="G2" s="83" t="s">
+        <v>238</v>
+      </c>
       <c r="H2" s="60" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="60"/>
+      <c r="J2" s="60" t="s">
+        <v>239</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="L2" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="66"/>
       <c r="Q2" s="66"/>
-      <c r="R2" s="60"/>
+      <c r="R2" s="66"/>
       <c r="S2" s="66"/>
       <c r="T2" s="66" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="U2" s="66" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="V2" s="66"/>
     </row>
-    <row r="3" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="80" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="59" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C3" s="60" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3" s="60"/>
+        <v>163</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>242</v>
+      </c>
       <c r="E3" s="68" t="s">
         <v>123</v>
       </c>
       <c r="F3" s="62" t="s">
         <v>237</v>
       </c>
-      <c r="G3" s="85" t="s">
+      <c r="G3" s="83" t="s">
         <v>238</v>
       </c>
       <c r="H3" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="I3" s="60"/>
+      <c r="I3" s="60" t="s">
+        <v>243</v>
+      </c>
       <c r="J3" s="60" t="s">
         <v>239</v>
       </c>
-      <c r="K3" s="39" t="s">
-        <v>240</v>
-      </c>
-      <c r="L3" s="39" t="s">
-        <v>241</v>
-      </c>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
+      <c r="K3" s="84" t="s">
+        <v>244</v>
+      </c>
+      <c r="L3" s="84"/>
+      <c r="M3" s="85" t="s">
+        <v>245</v>
+      </c>
+      <c r="N3" s="85" t="s">
+        <v>181</v>
+      </c>
       <c r="O3" s="60"/>
       <c r="P3" s="66"/>
       <c r="Q3" s="66"/>
       <c r="R3" s="66"/>
       <c r="S3" s="66"/>
       <c r="T3" s="66" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="U3" s="66" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="V3" s="66"/>
     </row>
-    <row r="4" customFormat="false" ht="80" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="59" t="n">
-        <v>57</v>
-      </c>
-      <c r="B4" s="60" t="s">
-        <v>163</v>
-      </c>
-      <c r="C4" s="60" t="s">
-        <v>163</v>
-      </c>
-      <c r="D4" s="60" t="s">
-        <v>242</v>
-      </c>
-      <c r="E4" s="68" t="s">
-        <v>123</v>
-      </c>
-      <c r="F4" s="62" t="s">
-        <v>237</v>
-      </c>
-      <c r="G4" s="85" t="s">
-        <v>238</v>
-      </c>
-      <c r="H4" s="60" t="s">
-        <v>161</v>
-      </c>
-      <c r="I4" s="60" t="s">
-        <v>243</v>
-      </c>
-      <c r="J4" s="60" t="s">
-        <v>239</v>
-      </c>
-      <c r="K4" s="86" t="s">
-        <v>244</v>
-      </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="87" t="s">
-        <v>245</v>
-      </c>
-      <c r="N4" s="87" t="s">
-        <v>181</v>
-      </c>
-      <c r="O4" s="60"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="U4" s="66" t="s">
-        <v>111</v>
-      </c>
-      <c r="V4" s="66"/>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -6414,17 +6369,17 @@
       <c r="F2" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="G2" s="88" t="s">
+      <c r="G2" s="86" t="s">
         <v>250</v>
       </c>
-      <c r="H2" s="89" t="s">
+      <c r="H2" s="87" t="s">
         <v>251</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>252</v>
       </c>
       <c r="J2" s="8"/>
-      <c r="K2" s="90"/>
+      <c r="K2" s="88"/>
       <c r="O2" s="0" t="s">
         <v>21</v>
       </c>
@@ -6448,17 +6403,17 @@
       <c r="F3" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="G3" s="88" t="s">
+      <c r="G3" s="86" t="s">
         <v>253</v>
       </c>
-      <c r="H3" s="89" t="s">
+      <c r="H3" s="87" t="s">
         <v>254</v>
       </c>
       <c r="I3" s="8" t="n">
         <v>2</v>
       </c>
       <c r="J3" s="4"/>
-      <c r="K3" s="90"/>
+      <c r="K3" s="88"/>
       <c r="O3" s="0" t="s">
         <v>21</v>
       </c>
@@ -6482,17 +6437,17 @@
       <c r="F4" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="G4" s="88" t="s">
+      <c r="G4" s="86" t="s">
         <v>255</v>
       </c>
-      <c r="H4" s="89" t="s">
+      <c r="H4" s="87" t="s">
         <v>256</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>257</v>
       </c>
       <c r="J4" s="4"/>
-      <c r="K4" s="90"/>
+      <c r="K4" s="88"/>
       <c r="O4" s="0" t="s">
         <v>21</v>
       </c>
